--- a/data/financial_statements/socf/GE.xlsx
+++ b/data/financial_statements/socf/GE.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2839 +593,2842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1946000000</v>
+      </c>
+      <c r="C2">
         <v>-160000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-772000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1014000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-3843000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1185000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1135000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-2798000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2639000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-1194000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-2132000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>6233000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>722000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-9383000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>104000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3645000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>861000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>-22860000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>669000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>-1113000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-10872000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1191000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1019000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>-187000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2330000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1951000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2823000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>107000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6403000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2545000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>-1135000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>-13608000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5339000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3462000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3592000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2952000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3364000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3181000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3299000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3511000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>644000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>679000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1485000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>759000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>726000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>771000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>753000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>764000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1162000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>759000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>779000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-648000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1500000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1327000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1362000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1485000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1308000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1915000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1874000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>766000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2027000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1669000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1732000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3429000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1136000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1295000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1210000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1293000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1265000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1188000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1101000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1133000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1425000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>206000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2189000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-1950000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2577000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2266000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2309000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>-118000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1722000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>56000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6273000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>79000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2271000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1653000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-3936000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1167000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>444000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-5495000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>870000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>9069000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-863000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-2860000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>156000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>18210000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-621000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1433000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-1036000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>758000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-338000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-743000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-11940000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-117000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-2140000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-981000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-5546000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-2331000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>8134000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>15323000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3047000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1432000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2230000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-1882000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>8326000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-271000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>344000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-3600000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-1344000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-585000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-749000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-1051000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-68000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-4000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>946000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>346000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1475000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>313000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-503000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-994000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-1161000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-1241000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>545000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>635000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-1355000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-390000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>752000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-5250000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-820000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2168000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>697000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-1116000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>866000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1013000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-961000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-694000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-998000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2601000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-1222000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-715000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-458000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>482000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-681000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-27000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-339000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>562000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-428000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1356000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-990000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>482000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>146000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-608000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-722000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1537000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>406000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>239000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-1077000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>532000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-162000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-786000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-1165000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>874000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>68000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-496000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-1019000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2050000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-1084000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>173000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-815000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1779000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>35000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-1138000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-1491000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1452000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-617000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-884000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-265000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1896000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-440000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-883000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-1445000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>427000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-343000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-475000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-977000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>661000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1371000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>75000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-367000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>549000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-349000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>626000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>704000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1295000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-617000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1420000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>431000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>613000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>215000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-109000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>496000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>338000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-59000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>702000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>234000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-463000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-304000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1277000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-181000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-126000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>258000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-917000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-391000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1038000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-271000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-766000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-136000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>496000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>971000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-529000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>102000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>119000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>750000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>661000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1371000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>75000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>165000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-367000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>549000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-349000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>926000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>514000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1414000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-601000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>17644000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>952000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>410000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>688000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-153000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-554000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-460000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3673000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-464000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>517000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-445000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4182000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-55000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>529000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-1011000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1661000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-127000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-1240000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-464000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2676000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-40000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-713000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-1254000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-970000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-432000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-122000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>632000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>269000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-189000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-76000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-1000000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-2473000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>643000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>665000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>650000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-2282000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>12000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2107000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2055000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>1215000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-923000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-103000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-200000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>638000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-773000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-982000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-2021000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1026000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-6000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>892000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>624000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1599000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>386000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-609000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2647000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1343000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-1159000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-1092000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>14628000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-1411000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>770000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-679000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>6434000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-316000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-4937000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-103000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>4750000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1172000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-971000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2209000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>4509000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>364000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-599000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1044000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>4672000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>1423000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>550000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-556000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2432000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2341000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>518000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1959000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3628000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1335000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-1162000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-233000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6701000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1841000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>70000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>122000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8567000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-2914000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-987000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>312000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3662000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>857000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2117000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-82000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3033000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>962000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-3479000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>644000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>6745000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>761000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>6295000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>6090000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>11464000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>6035000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>5249000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>4961000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>11348000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>5231000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>7321000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>4610000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-210000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-278000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-310000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-316000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-273000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-196000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-298000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-208000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-271000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-421000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-476000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-458000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-345000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-707000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-327000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-647000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-394000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-327000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-1166000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>191000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-176000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-469000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-658000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-1069000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>124000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-590000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-1240000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-1888000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-459000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-813000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-1129000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-1664000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-340000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-110000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-2097000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1972000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-1353000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-1842000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-2815000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-30000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-25000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-23000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-33000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-29000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-25000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-24000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-26000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-27000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-38000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-60000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-74000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-67000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-72000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-69000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-71000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-69000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-83000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-97000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-36000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-145000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-143000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-130000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-749000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-778000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-15000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>20833000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-27000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-90000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-247000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>315000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>20499000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-68000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3103000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>451000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3434000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2948000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3115000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2349000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>41000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3955000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-296000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-1612000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-97000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>5383000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>9316000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>11760000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>36517000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>21849000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>31995000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>16439000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-412000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>22000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>34000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-83000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-1202000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-5164000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-7716000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>545000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>6655000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>167000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-12000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-1344000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-130000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-49000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-399000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-712000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-60000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>42000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-45000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1289000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-1600000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2534000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
         <v>66000000</v>
-      </c>
-      <c r="G16">
-        <v>21000000</v>
       </c>
       <c r="H16">
         <v>21000000</v>
       </c>
       <c r="I16">
+        <v>21000000</v>
+      </c>
+      <c r="J16">
         <v>12000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>128000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-57000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-103000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>594000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>146000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>24000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>353000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>515000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>444000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>534000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>303000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-379000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>131000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>747000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>306000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-93000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1439000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-1135000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-11000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>296000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>310000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>243000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>194000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2959000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-1960000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-3227000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>3488000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-5173000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1745000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>370000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>21908000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>154000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2285000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1232000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>727000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>684000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>341000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1233000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-682000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-364000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-418000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>535000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>6648000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-1166000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>195000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>99000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1363000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3103000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3530000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>354000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-1096000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>921000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1075000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3289000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>4159000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-1144000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-10052000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-3481000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-19763000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>11379000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-3161000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>5185000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-4431000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>465000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1510000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1603000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>5460000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>2401000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>6387000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>5737000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>67000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1969000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-444000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>21082000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>332000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-308000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>202000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-1031000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-740000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-663000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>19105000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3927000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1668000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-108000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3490000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6644000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6199000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>6003000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-566000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2635000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>435000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-400000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2709000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>7632000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>9735000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-15000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>31783000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-283000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>43224000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>12708000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>3839000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-3115000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-1801000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-1910000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1792000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-2905000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-4923000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>5460000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>31485000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-1130000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-761000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-1221000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-26631000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-129000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-8589000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-1518000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-4540000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-3139000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-3446000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-7647000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1630000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-7072000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-1880000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-3260000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-4265000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>651000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-7590000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-10338000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-4092000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-4493000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3506000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-7563000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-8068000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-6489000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-30915000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-12939000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-17714000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-27658000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-7937000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-4237000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-23005000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-162000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-2119000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-4904000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-3143000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1645000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-8788000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-19030000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-318000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-370000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-5000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-82000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>29000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>31000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>35000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>40000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-11000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-8000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>70000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>112000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-1154000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-1578000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-3460000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-3677000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-7966000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-6326000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-1734000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>136000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>260000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>239000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-2701000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>2864000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-44000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-1337000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-2772000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-906000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-3867000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-1733000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL21">
         <v>990000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>990000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-161000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-154000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-140000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-144000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-139000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-144000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-148000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-236000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-88000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-235000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-89000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-238000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-87000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-236000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-88000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-1192000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-1046000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-1193000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-1043000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-2233000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-2085000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-2248000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-2084000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-2195000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-2103000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-2274000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-2234000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-2334000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-2326000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-2316000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-2319000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-2209000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-2211000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-2209000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-2223000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-1926000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-1940000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-1972000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-1983000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-379000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-395000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-98000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-6087000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-122000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-1586000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>60000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-38000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>189000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-399000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-183000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-177000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-369000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-709000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-387000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-1388000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-3658000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-234000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-510000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4093000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>324000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-7000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>948000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-1847000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>849000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-200000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-620000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-4463000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-1250000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-470000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-1929000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>22038000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>796000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>507000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-37000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>273000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>12000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-225000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-210000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-1987000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-1681000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-1459000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-32776000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-395000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-10401000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1605000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-4814000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-3040000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-4079000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-7919000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-2044000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-7528000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-2826000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-3735000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-6839000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-4054000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-9014000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-11899000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-2161000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-6142000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>97000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-10278000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-15571000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-11419000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-41355000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-22119000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-26247000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-31097000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-10464000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-8246000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-5877000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1287000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-3865000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-8501000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-6578000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-2179000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-13862000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-22956000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>-357000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-191000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-75000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-77000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-99000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>94000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-131000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>156000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>206000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>39000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-256000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>81000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-132000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-77000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>78000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-188000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-155000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-493000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>208000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-362000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>715000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>405000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>133000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-977000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-145000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-55000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>31000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>52000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-629000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>939000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-3826000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-2132000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-1556000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>123000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>73000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>243000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-327000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>3000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-714000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>-854000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>647000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-2534000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-9338000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2179000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-10097000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-3494000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-2062000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-2238000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-5866000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10697000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>8665000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-4150000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-2941000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-45000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>8185000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-925000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-4491000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-11945000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3775000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-4135000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2219000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-7518000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-5883000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-867000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-44905000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>10340000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-19732000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>12258000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>9479000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-2143000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>337000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3965000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-403000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-1675000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2109000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-2198000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-1078000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>12425000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>16859000000</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3320,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>37608000000</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3332,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>37077000000</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3344,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>35548000000</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3356,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>44724000000</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3368,866 +3485,875 @@
         <v>0</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>50384000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>820000000</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <v>90878000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-1000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>91017000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>5000000</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
       </c>
       <c r="AI27">
         <v>0</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
         <v>88787000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>74000000</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
         <v>77459000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-853000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>646000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>14325000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-9338000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2179000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-10097000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>34115000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-2062000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-2238000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-5866000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>47774000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>8665000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-4150000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-2941000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>35503000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>8184000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-924000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-4491000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>32779000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3774000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-4135000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2219000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>42866000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-5061000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-868000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-44904000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>101217000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-19731000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>12257000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>9479000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>88874000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>343000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>3965000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-403000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>87112000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2184000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-2198000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-1078000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>89884000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>455000000</v>
+      </c>
+      <c r="C29">
         <v>-161000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-154000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-140000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-144000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-139000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-144000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-148000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-236000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-88000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-235000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-89000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-238000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-87000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-236000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-88000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-1192000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-1046000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-1193000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-1043000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-2233000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-2085000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-2248000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-2084000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-2195000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-2103000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-2274000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-2234000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-2334000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-2326000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-2316000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-2319000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-2209000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-2211000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-2209000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-2223000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-1926000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-1940000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-1972000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-1983000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.1033</v>
+      </c>
+      <c r="C30">
         <v>0.2175</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.2304</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.1274</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.08790000000000001</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.3695</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.3788</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.3653</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.4208</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.165</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-0.1515</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-0.09370000000000001</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.5942</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.2579</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.4559</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.4804</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.7511</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.641</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.573</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.6458</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.426</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.3575</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.2827</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.2282</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.2019</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.2443</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.2917</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.3394</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.4041</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.4731</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.6068</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.6965</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.7951</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.7544</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.7937</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.8421999999999999</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.7766</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.9722</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.9789</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.9978</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-159000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-160000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-976000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-557000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-286000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-617000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-585000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6182000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-829000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-226000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-2642000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>5140000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-947000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-885000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-1416000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>3419000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-918000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-1788000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-790000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>178000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-1710000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-1003000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-205000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2783000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-1694000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-520000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>412000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-157000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-1891000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-920000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1065000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-2565000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-648000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-180000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>658000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-3065000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-256000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1412000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>2390000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>167000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-12000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-1344000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-130000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-49000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-399000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-712000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-28000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>170000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-102000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-1392000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-2123000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>146000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>24000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>353000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3049000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>444000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>534000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>303000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-379000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>131000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>747000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>306000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-93000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1439000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-1135000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-11000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>296000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>310000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>243000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>194000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2959000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-1960000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-3227000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3488000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-5173000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1745000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>370000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>21908000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-318000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-370000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-5000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-82000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>29000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>31000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>35000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>40000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-11000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-8000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>70000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>112000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-1154000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-1578000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-3460000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-3677000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-7966000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-6326000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-1734000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>136000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>260000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>239000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-2701000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>2864000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-44000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-1337000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-1782000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-1896000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-2877000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-1733000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>-318000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-370000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-5000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-82000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>29000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>31000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>35000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>40000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-11000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>2000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-8000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>70000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>112000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-1154000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-1578000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-3460000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-3677000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-7966000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-6326000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-1734000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>136000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>260000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>239000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-2701000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>2864000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-44000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-1337000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>-1782000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-906000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-2877000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-1733000000</v>
       </c>
     </row>
